--- a/Testdata/TC_46.xlsx
+++ b/Testdata/TC_46.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>/hkAAB+LCAAAAAAAAAOlGdtuG8f1VxZ8aoGSuyRtRxLGG/AmhSgpCiRVWXkphrsjcavhLLM7K4lvKZAgRZqiKAqnSK/oU4oCdY02AVK7l38JLNl96i/0zGVnL6Ti0jUEa+fc5syZcx2ht68X1LokURyE7GGlXnMqFmFe6Afs/GEl4WfV+oPK2y7qXXuEHuEILwgHYgu4WLx3HQcPK3POl3u2fXV1Vbtq1sLo3G44Tt1+NBxMvDlZ4GrAYo6ZRyqGy389V8VFHX8xJBz7mGPF+bDSn/RrHRJ4XYANMcPnJKq1kzhgJI57jAc8ILHgjAjmpNMdfk8dzG3UHtTqyF6DZ5TtJKC+oitQKrimg23JNFgQt+HUd6rOTrVZnzq7e82dvYZTazScd1NGQ4gGOOYTEl0GngRMOF4sJbuz06w7u82dhoPsjUQgKzOAi0bUH5PLICZ+h1Aab2URW19gy+Nw6u2MCerleLWgN1fhIMLL+TTglGynxnjYthZM65IJcdF+GBEP7PdGKh2Sq1GkzTpdDgA7nQcRX3XxamtZxzGJRkthpO1YXdQNGW9REvHjJdw18cEVAOHyKCHIvgOZMXWD2IPvgCXEd88wjfNMBSQ6CaOLeIk9cghxbAsZV4yG2AeH40HMAy/OBKxh0FEULkEk7N4Oqb8PYlPqDRgju8/AyGLjdhhelMUXkUjeq7xhuNUFNvLX4GgyD69GjK4mySz2omBG/G47pd6IQyIkNXcniXm4AC0yEFKwHGQF/yAEy2DUJV6wwPSIghljtwlSCgDUSnh4FvBOSJMFM/YsQdEJnGhKrs0JzRqN4HqZsHrI+qwkZSOuyDEOr1LPWYdLI+TArdgzN7KOKVN3AaZ9ch0hb0Sccj+gUCHyd5GDFr1iMieEb3QJhUEiGe6LmuO2KEV2tkTgl+DcoIbrQNmoyp+p4+zJH9jWoFGP+XfTpUh0mCxGMwjgS3kgtw64EgjBEWibYnYB0JOAzw9bqeobMEgd+E76dRyCUF1SvJJgY5Q8DPWZRxOfqAzQZ2fSI4VumvpOPFoDDSCoXYTZarpaikxg30HRJWc4oVCcOOSQ8yw9lMCoFV+UafIgdBzR9IJdUfpjqP2ev6h5kB1Ffat54UIAbCi5JxNk5+lFivdIj50PMDtPIIkaO5bhxr1E+E8jzGJxHJMzS562mQil96JyuZu/AmSXkGhKFsswwnQI1gj2EyaLpK4CYNYh5nO9gnClxEsta2eshquoTqrt68hk4CndRVbPB14OKqmEq6veQoVxEYaEIw5DH6o7psEsKrjWRhxcU1bzUicTp9uy/qWWh/4SUsp3yUo0HdlCw4WnuvUUIVeoAyq5k/G9ncZ9p9mAdC3WSJ54TDC1etB5cmL12SWJ+QLY9qwxiQMfvgJM96x3yIwEEOrSRPqmt+bO86H9iLyXQAe9kqq0QN8ipEgASfQ8YJiuExpMxuCeEhzRVY5QHXUQekB3+6N/3fz66Ytnn99+/PjVlx/85++/fPGPn948+RA+bv/y15tPfqGOqYjRFM8okQpN2zs7TvMeOJoBIZ0UoKz7iccl7PRUlnmzRrpflYtOr985GLRlFjHAlF20EIkIhgFehUm2nKhDyI3kldqpJygSd5pmJb0uYLtE1HYVhaI1vSRF6jz+LkZli5fPP3/5/E93cmuDZRWlvrt7v1pvvLbgQJNfX6MzBUe0/KqjSweKe1XnfrXRyBGXaNAY5iJo4Iyd+r4rZgin0XTqJoP7xpE3EZVRWtIUn9slPgXqhAnj0cq4QH6dIqXjTyFEDFqFQm6hXfTLH7/68+MClbauhhSlgHJhEilvstOFFH04nlqT0fG407OmvYnwkwyXo1PCv4FY727iqeBUjCWYfgemYTELWxVo8ypWeGYR7M2tFURiLg4LzrYJqjZ6Q5FlLQ+iMFmqG8kxZNANlCabbOTYkGskTtpzLelkqA3kStebv32xiUEfRLvZMQu4GevyMFTAKFAOr6P2s3+++OqjF8+e3T792c1XPyxI0PuYaQf8HKIpvzRuDylP15sSBJ1MpDEvnO/n6osGinbxKAwYj936A9kp6hUC1rqQJn+j/gJKnhQs7QXwEgS9g+PeNdeB7R4iuwgAPZcYqm2YNdQGoHJ4Ztd//+a3t7/64vbTp68++uPNx3+4+eTTl89/9+rJ71XU3T5+evuTJzrLlwuB1EW06ar1s+TU51kiGi1Ru62v3/+5xUJuQc9hJTIjff3+ZzlhQlHZnWSSoZEzihRVWCPNMws+K6eK0aHAZ1hUA9ARJaxpKHQRC5eBl23yblWIEnEnEd/qT6tJTKwQ2qlvw0mKxBnz/8qnWVRJPXrLadQbGqu0EUeY4Thn+gMazqDJSBFyqiqRFLi+mSGjlfsdDEbt1iAjUUqMIh+GMEeMhuIDpT2lKCn9OF2ZcSKDABYaPy+hYhBeI1tHGcm5NGbrgfKs5Yv0t3kgK1DAUB5FqiFi+olykiyhG+a6gb0bL19jcv3voepV8x1xtu53i3hY57BQCItoAZB4mZo0SqWpfiyGV9XOHgrTZEvAFV5wwBz6FVJ1WpfQV0a2yDu9KAqjjcknw6RkQ+ikIaPYmcUNjbxT1XX72V2lgDThmQ817+kThl1CCd/uic7OuIfh5Rvzwt1vy9qPR9TXxtxu9DBmyQTk3ymFo/y/z5TK2VpRBI2VeNXY+l0xHVfHMOVuqY06imQUEyDsrh/+9oMo5o9EJtBfCnJqIKeqQ30k65v6koBTMYGpD31ILd0uqJmGLlevxSEdBItgy7HQSeO7KARsuVyqFq6/naeI0nJIrqHBzEmApDj7AZQNMfJsJ005LORSwy9eaOLgfM63VeytGSY+mTlVb0Ya1Xu+s1PdJaRZrdfhf+w1Go5zXzzvaOGQOQJyteUmdnph2V9x3P8Cx/VBmP4ZAAA=</t>
+          <t>1hsAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlUpTtWMYsA93sCJUsQ5LrdV6KETmypqZIhRza1lsKJEiRpiiKYlOkV/QpRYFuF20CpLu9/Euw9m6f+gs9c+FVcrZ0DQPmnNucOXOuY/T2zdLVrkgQUt97VKnXjIpGPNt3qHfxqBKxebW+V3nbQr0bm7gnOMBLwoBYAy4vPLgJ6aPKgrHVga5fX1/Xrhs1P7jQTcOo64+Hg4m9IEtcpV7IsGeTSsLlvJmrYqGOsxwShh3MsOR8VOlP+rUOoXYXYEPs4QsS1NpRSD0Shj2PUUZJyDkDghnpdIffkwezzNperY70DXhK2Y6o60i6HKWEKzrYlkzpklimYRpVY79q7kyN5sHu3sFus/ZWff/dmDEhRAMcsgkJrqgtABOGlyvBbuybO0Zzd2+3ifStRCArNYCFRq4zJlc0JE6HuG5YyiK6usCWzeDU5YxpID3DqwQ9XIWjAK8WU8pcUpb90A+IDYZ60N7H5HoUKPtNVwPAThc0YOsuXpeWdRqSYLTi1ijHaqGu77GWSwJ2uoJLJQ7cOSAsFkQE6fcgU6YuDW34pl5EHGuO3TDLlEOiMz+4DFfYJscQsDqXce25PnbAsxgNGbXDVMAGBp0E/gpEwu5t33UOQWxMvQWTyO57YGS+cdv3L4vi80gkvED4A9zqEifyN+BosvCvR567nkSz0A7ojDjddky9FYd47CnuThQyfwlapCAkYRnIGn4g1opg1CU2XWL3xAUzhlYDpOQAqBUxf05Zx3ejpZfYswBFZ3CiKblJTpis0Qiu1+NW972+V5CyFZfnGPvXsedswoURMuBWaCc3sokpUncBpnxyEyFuhJ/ykLpQCrJ3kYHmvWKyIIRtdQmJQTzrHfLiYrVcF+npEoFfgnODGpYB9aEqfqeGcSB+YdsEjXqecz9djETH0XI0gwC+Egey6oArgBAcwW272LsE6Blli+NWrPoWDJIHvpd+E4cgVFcuXgtwYpQsDPU9240cIjNA35sLj+S6Kep78WgDNICg5gmAzHHkQpFhkCIu0ugvgFErvCzSZEHoNHDj+7N4CQ+hhtvOsmZD8uN1qmb7Sw7QoXSeTZCepecZ3CY972KAvYsIcmRipiI88R4e3dMAeyE/T5ISC460nQjFZpep2spaGOkFJJqS5coPsDsEa9DDyBPFTiV5MN8Qs4VaQTS6xM6YNmZNuPLqxNq+iUzEldSdJ+1sXGWggop7suwRZJTmYYj72dB3oEpjl86CnOdsxcE1pSUt9iF+upLlLbY89ImQMb5L1rx5SBcKPl2viFWPEWKFOqCSNRnv7Ju7RsOEbMzXSJx4TLCr9aCDZETre1ckZEtgO9DGJKQOfFHsHmjvkBmhEMnCROqmS3Nn+dBhQN6LoBNeC1VaoG8ekieAHHlBPexuEiaYlME6Jzhw1xlCedSBbwPd3Y/+dfvrZy+ff3738ZPXX37wn7//8uU/fnr79EP4uPvLX28/+YU8piRGUzxziVBo2t7fNxo74GgJCHHj6qKeO5HNBOz8XFTxZI1U3ykWnV6/czRog0dlgDE77xAiHgwDvPajdDmRhxAbiSvVY0+QJNZUyEvXOWyX8NIto5C3mFckT53F38cobfHqxeevXvzpXm5lsLRg1JvN3WrdfGM9MY16fYMuqSe8dZcNmxoM6jtVY7dqmhniAg0aw3wD/Vlip75jNepG0zAbRj3WH2CxI28jKqKUpCm+0At8EtTxI48F68QFsusYKRx/CiGSoGUoZBbKRb/88es/P8lRKesqSF4KKOdHgfQmPV4I0cfjqTYZnY47PW3am3A/SXEZOin8G4jV7kk85ZzK8yLsfgemWj7TahXo4iqaP9cIthfaGiIxE4c5Z9sGlRs9UGRRy6PAj1byRjIMKXQLZZJNtnJsyTUCJ+y5kXRS1BZyqevt377YxqAOotzs1KPMGg/b2tJL/FLAUA4jQRm8itrP/vnyq49ePn9+9+xnt1/9MCdB7ZMMM+DnEE3ZZeL2kPJUvSlA0NlEGPPS+H6mvigg7wZPfOqx0KrviUZQrRCw1rk08Rf1l1DyhGBhL4AXIOgdHPZumAps6xjpeQDoucJQbf20X04AMoendv33b35796sv7j599vqjP95+/IfbTz599eJ3r5/+Xkbd3ZNndz95qrJ8sRAIXXgXLns/TQx1tsajUeO1W/v6/Z9rns806Dm0SGSkr9//LCOMKyq6k1QyNHKJInkVNkizzJxPy6iS6JDjS1hkA9DhJayRUKgi5q+onW7ybpWL4nEnEN/qT6tRSDQf2qlvw0nyxCnz/8qnWGRJPXnLMOumwkpt+BFmOMyY/sj1Z9BkxAgxNBVIclzfzJDSiv2OBqN2a5CSSCVGgQMzlsEnP/6B+mHcVSYTQgoBLDR7duTy2XaDbBOF4q9M6tLVjDhvOTzlbZ+xchQwZweBbII89bw4iVbQATPVtN6PFw8smZ73WPan2S44Xfe7eTysM1gofnk0Bwi8SEcKJVNTP+TzqGxhj7lp0iXgco8yYA71gii7qyvoJQOd55peEPjB1oSTYmKyIXTPkEX01OIJjc63lJ22k95VDIiTXPLBe/UkF/pd4hJW+nkt5h76Vw/mhbsvy9oPR66jjFlu3EjMkgrIvjFyRymrTCsIoG3iTxKlHwUH1Lvslzu91bBtx97DO7Yxs2e4iRu7+2Z95uztz3ZmNp5D4yiE8vGTi+CTC5/dym0CzWKePZ2uxzBvl5QmDSwY+SwKlhIBqRJ7skaHNAjZY56i1JeEnCeQc9k6PxaFV34JwDlXWH6oh2e1mZ7TOs4vTD5H++6ALmnJedWIk1BeCLjBaiV7y7IXCjXvmNxA55uRANl69gOoZ3wWKydNRhUk+YQ/ljWJZqXF6THzCeC5Yz2Mu+dAX/ZwbvG0S93/QwHReT1URN8L6cWClb1Xs9lskD1iVs25bVd3YFGFajyrOnjerBvGvOHsmvxVTgmH6kDJdclNeE2hIcwV5fn0wn/nrP8Cq8D6PtYbAAA=</t>
         </r>
       </text>
     </comment>
@@ -40,7 +40,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -490,4 +490,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>2</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>2</EndRow>
+          <EndCol>17</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6945AB3A-FAFB-4348-A03F-638D87AECC96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_46.xlsx
+++ b/Testdata/TC_46.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1hsAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlUpTtWMYsA93sCJUsQ5LrdV6KETmypqZIhRza1lsKJEiRpiiKYlOkV/QpRYFuF20CpLu9/Euw9m6f+gs9c+FVcrZ0DQPmnNucOXOuY/T2zdLVrkgQUt97VKnXjIpGPNt3qHfxqBKxebW+V3nbQr0bm7gnOMBLwoBYAy4vPLgJ6aPKgrHVga5fX1/Xrhs1P7jQTcOo64+Hg4m9IEtcpV7IsGeTSsLlvJmrYqGOsxwShh3MsOR8VOlP+rUOoXYXYEPs4QsS1NpRSD0Shj2PUUZJyDkDghnpdIffkwezzNperY70DXhK2Y6o60i6HKWEKzrYlkzpklimYRpVY79q7kyN5sHu3sFus/ZWff/dmDEhRAMcsgkJrqgtABOGlyvBbuybO0Zzd2+3ifStRCArNYCFRq4zJlc0JE6HuG5YyiK6usCWzeDU5YxpID3DqwQ9XIWjAK8WU8pcUpb90A+IDYZ60N7H5HoUKPtNVwPAThc0YOsuXpeWdRqSYLTi1ijHaqGu77GWSwJ2uoJLJQ7cOSAsFkQE6fcgU6YuDW34pl5EHGuO3TDLlEOiMz+4DFfYJscQsDqXce25PnbAsxgNGbXDVMAGBp0E/gpEwu5t33UOQWxMvQWTyO57YGS+cdv3L4vi80gkvED4A9zqEifyN+BosvCvR567nkSz0A7ojDjddky9FYd47CnuThQyfwlapCAkYRnIGn4g1opg1CU2XWL3xAUzhlYDpOQAqBUxf05Zx3ejpZfYswBFZ3CiKblJTpis0Qiu1+NW972+V5CyFZfnGPvXsedswoURMuBWaCc3sokpUncBpnxyEyFuhJ/ykLpQCrJ3kYHmvWKyIIRtdQmJQTzrHfLiYrVcF+npEoFfgnODGpYB9aEqfqeGcSB+YdsEjXqecz9djETH0XI0gwC+Egey6oArgBAcwW272LsE6Blli+NWrPoWDJIHvpd+E4cgVFcuXgtwYpQsDPU9240cIjNA35sLj+S6Kep78WgDNICg5gmAzHHkQpFhkCIu0ugvgFErvCzSZEHoNHDj+7N4CQ+hhtvOsmZD8uN1qmb7Sw7QoXSeTZCepecZ3CY972KAvYsIcmRipiI88R4e3dMAeyE/T5ISC460nQjFZpep2spaGOkFJJqS5coPsDsEa9DDyBPFTiV5MN8Qs4VaQTS6xM6YNmZNuPLqxNq+iUzEldSdJ+1sXGWggop7suwRZJTmYYj72dB3oEpjl86CnOdsxcE1pSUt9iF+upLlLbY89ImQMb5L1rx5SBcKPl2viFWPEWKFOqCSNRnv7Ju7RsOEbMzXSJx4TLCr9aCDZETre1ckZEtgO9DGJKQOfFHsHmjvkBmhEMnCROqmS3Nn+dBhQN6LoBNeC1VaoG8ekieAHHlBPexuEiaYlME6Jzhw1xlCedSBbwPd3Y/+dfvrZy+ff3738ZPXX37wn7//8uU/fnr79EP4uPvLX28/+YU8piRGUzxziVBo2t7fNxo74GgJCHHj6qKeO5HNBOz8XFTxZI1U3ykWnV6/czRog0dlgDE77xAiHgwDvPajdDmRhxAbiSvVY0+QJNZUyEvXOWyX8NIto5C3mFckT53F38cobfHqxeevXvzpXm5lsLRg1JvN3WrdfGM9MY16fYMuqSe8dZcNmxoM6jtVY7dqmhniAg0aw3wD/Vlip75jNepG0zAbRj3WH2CxI28jKqKUpCm+0At8EtTxI48F68QFsusYKRx/CiGSoGUoZBbKRb/88es/P8lRKesqSF4KKOdHgfQmPV4I0cfjqTYZnY47PW3am3A/SXEZOin8G4jV7kk85ZzK8yLsfgemWj7TahXo4iqaP9cIthfaGiIxE4c5Z9sGlRs9UGRRy6PAj1byRjIMKXQLZZJNtnJsyTUCJ+y5kXRS1BZyqevt377YxqAOotzs1KPMGg/b2tJL/FLAUA4jQRm8itrP/vnyq49ePn9+9+xnt1/9MCdB7ZMMM+DnEE3ZZeL2kPJUvSlA0NlEGPPS+H6mvigg7wZPfOqx0KrviUZQrRCw1rk08Rf1l1DyhGBhL4AXIOgdHPZumAps6xjpeQDoucJQbf20X04AMoendv33b35796sv7j599vqjP95+/IfbTz599eJ3r5/+Xkbd3ZNndz95qrJ8sRAIXXgXLns/TQx1tsajUeO1W/v6/Z9rns806Dm0SGSkr9//LCOMKyq6k1QyNHKJInkVNkizzJxPy6iS6JDjS1hkA9DhJayRUKgi5q+onW7ybpWL4nEnEN/qT6tRSDQf2qlvw0nyxCnz/8qnWGRJPXnLMOumwkpt+BFmOMyY/sj1Z9BkxAgxNBVIclzfzJDSiv2OBqN2a5CSSCVGgQMzlsEnP/6B+mHcVSYTQgoBLDR7duTy2XaDbBOF4q9M6tLVjDhvOTzlbZ+xchQwZweBbII89bw4iVbQATPVtN6PFw8smZ73WPan2S44Xfe7eTysM1gofnk0Bwi8SEcKJVNTP+TzqGxhj7lp0iXgco8yYA71gii7qyvoJQOd55peEPjB1oSTYmKyIXTPkEX01OIJjc63lJ22k95VDIiTXPLBe/UkF/pd4hJW+nkt5h76Vw/mhbsvy9oPR66jjFlu3EjMkgrIvjFyRymrTCsIoG3iTxKlHwUH1Lvslzu91bBtx97DO7Yxs2e4iRu7+2Z95uztz3ZmNp5D4yiE8vGTi+CTC5/dym0CzWKePZ2uxzBvl5QmDSwY+SwKlhIBqRJ7skaHNAjZY56i1JeEnCeQc9k6PxaFV34JwDlXWH6oh2e1mZ7TOs4vTD5H++6ALmnJedWIk1BeCLjBaiV7y7IXCjXvmNxA55uRANl69gOoZ3wWKydNRhUk+YQ/ljWJZqXF6THzCeC5Yz2Mu+dAX/ZwbvG0S93/QwHReT1URN8L6cWClb1Xs9lskD1iVs25bVd3YFGFajyrOnjerBvGvOHsmvxVTgmH6kDJdclNeE2hIcwV5fn0wn/nrP8Cq8D6PtYbAAA=</t>
+          <t>/hkAAB+LCAAAAAAAAAOlGdtuG8f1VxZ8aoGSuyRtRxLGG/AmhSgpCiRVWXkphrsjcavhLLM7K4lvKZAgRZqiKAqnSK/oU4oCdY02AVK7l38JLNl96i/0zGVnL6Ti0jUEa+fc5syZcx2ht68X1LokURyE7GGlXnMqFmFe6Afs/GEl4WfV+oPK2y7qXXuEHuEILwgHYgu4WLx3HQcPK3POl3u2fXV1Vbtq1sLo3G44Tt1+NBxMvDlZ4GrAYo6ZRyqGy389V8VFHX8xJBz7mGPF+bDSn/RrHRJ4XYANMcPnJKq1kzhgJI57jAc8ILHgjAjmpNMdfk8dzG3UHtTqyF6DZ5TtJKC+oitQKrimg23JNFgQt+HUd6rOTrVZnzq7e82dvYZTazScd1NGQ4gGOOYTEl0GngRMOF4sJbuz06w7u82dhoPsjUQgKzOAi0bUH5PLICZ+h1Aab2URW19gy+Nw6u2MCerleLWgN1fhIMLL+TTglGynxnjYthZM65IJcdF+GBEP7PdGKh2Sq1GkzTpdDgA7nQcRX3XxamtZxzGJRkthpO1YXdQNGW9REvHjJdw18cEVAOHyKCHIvgOZMXWD2IPvgCXEd88wjfNMBSQ6CaOLeIk9cghxbAsZV4yG2AeH40HMAy/OBKxh0FEULkEk7N4Oqb8PYlPqDRgju8/AyGLjdhhelMUXkUjeq7xhuNUFNvLX4GgyD69GjK4mySz2omBG/G47pd6IQyIkNXcniXm4AC0yEFKwHGQF/yAEy2DUJV6wwPSIghljtwlSCgDUSnh4FvBOSJMFM/YsQdEJnGhKrs0JzRqN4HqZsHrI+qwkZSOuyDEOr1LPWYdLI+TArdgzN7KOKVN3AaZ9ch0hb0Sccj+gUCHyd5GDFr1iMieEb3QJhUEiGe6LmuO2KEV2tkTgl+DcoIbrQNmoyp+p4+zJH9jWoFGP+XfTpUh0mCxGMwjgS3kgtw64EgjBEWibYnYB0JOAzw9bqeobMEgd+E76dRyCUF1SvJJgY5Q8DPWZRxOfqAzQZ2fSI4VumvpOPFoDDSCoXYTZarpaikxg30HRJWc4oVCcOOSQ8yw9lMCoFV+UafIgdBzR9IJdUfpjqP2ev6h5kB1Ffat54UIAbCi5JxNk5+lFivdIj50PMDtPIIkaO5bhxr1E+E8jzGJxHJMzS562mQil96JyuZu/AmSXkGhKFsswwnQI1gj2EyaLpK4CYNYh5nO9gnClxEsta2eshquoTqrt68hk4CndRVbPB14OKqmEq6veQoVxEYaEIw5DH6o7psEsKrjWRhxcU1bzUicTp9uy/qWWh/4SUsp3yUo0HdlCw4WnuvUUIVeoAyq5k/G9ncZ9p9mAdC3WSJ54TDC1etB5cmL12SWJ+QLY9qwxiQMfvgJM96x3yIwEEOrSRPqmt+bO86H9iLyXQAe9kqq0QN8ipEgASfQ8YJiuExpMxuCeEhzRVY5QHXUQekB3+6N/3fz66Ytnn99+/PjVlx/85++/fPGPn948+RA+bv/y15tPfqGOqYjRFM8okQpN2zs7TvMeOJoBIZ0UoKz7iccl7PRUlnmzRrpflYtOr985GLRlFjHAlF20EIkIhgFehUm2nKhDyI3kldqpJygSd5pmJb0uYLtE1HYVhaI1vSRF6jz+LkZli5fPP3/5/E93cmuDZRWlvrt7v1pvvLbgQJNfX6MzBUe0/KqjSweKe1XnfrXRyBGXaNAY5iJo4Iyd+r4rZgin0XTqJoP7xpE3EZVRWtIUn9slPgXqhAnj0cq4QH6dIqXjTyFEDFqFQm6hXfTLH7/68+MClbauhhSlgHJhEilvstOFFH04nlqT0fG407OmvYnwkwyXo1PCv4FY727iqeBUjCWYfgemYTELWxVo8ypWeGYR7M2tFURiLg4LzrYJqjZ6Q5FlLQ+iMFmqG8kxZNANlCabbOTYkGskTtpzLelkqA3kStebv32xiUEfRLvZMQu4GevyMFTAKFAOr6P2s3+++OqjF8+e3T792c1XPyxI0PuYaQf8HKIpvzRuDylP15sSBJ1MpDEvnO/n6osGinbxKAwYj936A9kp6hUC1rqQJn+j/gJKnhQs7QXwEgS9g+PeNdeB7R4iuwgAPZcYqm2YNdQGoHJ4Ztd//+a3t7/64vbTp68++uPNx3+4+eTTl89/9+rJ71XU3T5+evuTJzrLlwuB1EW06ar1s+TU51kiGi1Ru62v3/+5xUJuQc9hJTIjff3+ZzlhQlHZnWSSoZEzihRVWCPNMws+K6eK0aHAZ1hUA9ARJaxpKHQRC5eBl23yblWIEnEnEd/qT6tJTKwQ2qlvw0mKxBnz/8qnWVRJPXrLadQbGqu0EUeY4Thn+gMazqDJSBFyqiqRFLi+mSGjlfsdDEbt1iAjUUqMIh+GMEeMhuIDpT2lKCn9OF2ZcSKDABYaPy+hYhBeI1tHGcm5NGbrgfKs5Yv0t3kgK1DAUB5FqiFi+olykiyhG+a6gb0bL19jcv3voepV8x1xtu53i3hY57BQCItoAZB4mZo0SqWpfiyGV9XOHgrTZEvAFV5wwBz6FVJ1WpfQV0a2yDu9KAqjjcknw6RkQ+ikIaPYmcUNjbxT1XX72V2lgDThmQ817+kThl1CCd/uic7OuIfh5Rvzwt1vy9qPR9TXxtxu9DBmyQTk3ymFo/y/z5TK2VpRBI2VeNXY+l0xHVfHMOVuqY06imQUEyDsrh/+9oMo5o9EJtBfCnJqIKeqQ30k65v6koBTMYGpD31ILd0uqJmGLlevxSEdBItgy7HQSeO7KARsuVyqFq6/naeI0nJIrqHBzEmApDj7AZQNMfJsJ005LORSwy9eaOLgfM63VeytGSY+mTlVb0Ya1Xu+s1PdJaRZrdfhf+w1Go5zXzzvaOGQOQJyteUmdnph2V9x3P8Cx/VBmP4ZAAA=</t>
         </r>
       </text>
     </comment>
@@ -40,7 +40,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -490,37 +490,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>2</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>2</EndRow>
-          <EndCol>17</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6945AB3A-FAFB-4348-A03F-638D87AECC96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>